--- a/data/pca/factorExposure/factorExposure_2014-09-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.008808853728057332</v>
+        <v>0.01912566914830106</v>
       </c>
       <c r="C2">
-        <v>-0.1153332018601045</v>
+        <v>-0.07277179912246597</v>
       </c>
       <c r="D2">
-        <v>-0.001250544748176903</v>
+        <v>0.03137425568968997</v>
       </c>
       <c r="E2">
-        <v>0.2382269763295762</v>
+        <v>-0.09383629288897824</v>
       </c>
       <c r="F2">
-        <v>0.0387650524688774</v>
+        <v>-0.1295402068586339</v>
       </c>
       <c r="G2">
-        <v>-0.0795530677121926</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.006815587708548252</v>
+      </c>
+      <c r="H2">
+        <v>-0.05187919049770519</v>
+      </c>
+      <c r="I2">
+        <v>0.02597285459154768</v>
+      </c>
+      <c r="J2">
+        <v>-0.02320380048232617</v>
+      </c>
+      <c r="K2">
+        <v>-0.2097459526371205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01900850403974991</v>
+        <v>0.01847904793573474</v>
       </c>
       <c r="C4">
-        <v>-0.1593945675908653</v>
+        <v>-0.1425689899688792</v>
       </c>
       <c r="D4">
-        <v>-0.004047764705464314</v>
+        <v>0.06038185292724395</v>
       </c>
       <c r="E4">
-        <v>0.07150714722398853</v>
+        <v>0.01187845578854722</v>
       </c>
       <c r="F4">
-        <v>-0.07599182237903787</v>
+        <v>-0.07242290840282495</v>
       </c>
       <c r="G4">
-        <v>-0.0158285071616574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01589557564825127</v>
+      </c>
+      <c r="H4">
+        <v>-0.08876204463606123</v>
+      </c>
+      <c r="I4">
+        <v>0.09738552829490711</v>
+      </c>
+      <c r="J4">
+        <v>-0.07345081915504281</v>
+      </c>
+      <c r="K4">
+        <v>-0.1599922127938587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02648829367218835</v>
+        <v>0.03816406235109876</v>
       </c>
       <c r="C6">
-        <v>-0.07879539495597349</v>
+        <v>-0.08688753851997606</v>
       </c>
       <c r="D6">
-        <v>-0.05089436131290734</v>
+        <v>0.0307971520579655</v>
       </c>
       <c r="E6">
-        <v>0.06457072548174687</v>
+        <v>-0.04551064398810056</v>
       </c>
       <c r="F6">
-        <v>-0.01038707869652064</v>
+        <v>-0.01627398410720746</v>
       </c>
       <c r="G6">
-        <v>0.01096270991298605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04041355171178453</v>
+      </c>
+      <c r="H6">
+        <v>-0.03132979818734266</v>
+      </c>
+      <c r="I6">
+        <v>-0.006337316480323298</v>
+      </c>
+      <c r="J6">
+        <v>0.08090211200113619</v>
+      </c>
+      <c r="K6">
+        <v>-0.08723300109229246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.003630474733555462</v>
+        <v>0.01846546549231453</v>
       </c>
       <c r="C7">
-        <v>-0.06735122072911261</v>
+        <v>-0.07505930660076134</v>
       </c>
       <c r="D7">
-        <v>-0.03008272171631799</v>
+        <v>0.02748174144107529</v>
       </c>
       <c r="E7">
-        <v>0.02536572197326742</v>
+        <v>0.01406266110542562</v>
       </c>
       <c r="F7">
-        <v>-0.04121786854537186</v>
+        <v>-0.0007861347769956552</v>
       </c>
       <c r="G7">
-        <v>0.01167704553324998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03731395787519476</v>
+      </c>
+      <c r="H7">
+        <v>-0.09877243950156711</v>
+      </c>
+      <c r="I7">
+        <v>0.02719148410975263</v>
+      </c>
+      <c r="J7">
+        <v>-0.001005671829742693</v>
+      </c>
+      <c r="K7">
+        <v>-0.04386492336682419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.007297486591058193</v>
+        <v>0.0001590156013714858</v>
       </c>
       <c r="C8">
-        <v>-0.0743250410178003</v>
+        <v>-0.06292532565032691</v>
       </c>
       <c r="D8">
-        <v>-0.02457596763116391</v>
+        <v>0.04174423531370192</v>
       </c>
       <c r="E8">
-        <v>0.08394833636174219</v>
+        <v>-0.01883413157069755</v>
       </c>
       <c r="F8">
-        <v>-0.03326922177811451</v>
+        <v>-0.0594208759463918</v>
       </c>
       <c r="G8">
-        <v>-0.02419967527089515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01370554471764401</v>
+      </c>
+      <c r="H8">
+        <v>-0.05792930078216234</v>
+      </c>
+      <c r="I8">
+        <v>0.01750794071720618</v>
+      </c>
+      <c r="J8">
+        <v>-0.003948795935379027</v>
+      </c>
+      <c r="K8">
+        <v>-0.00289952338368617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.01055155487606048</v>
+        <v>0.01401649493162085</v>
       </c>
       <c r="C9">
-        <v>-0.1220711975684605</v>
+        <v>-0.1033919804211112</v>
       </c>
       <c r="D9">
-        <v>-0.02922572064244823</v>
+        <v>0.04258635902246893</v>
       </c>
       <c r="E9">
-        <v>0.03128376575340519</v>
+        <v>-0.001189809936847977</v>
       </c>
       <c r="F9">
-        <v>-0.02685687794943549</v>
+        <v>-0.03175401253892431</v>
       </c>
       <c r="G9">
-        <v>0.02967628211364584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.001959791149149727</v>
+      </c>
+      <c r="H9">
+        <v>-0.08999904769679065</v>
+      </c>
+      <c r="I9">
+        <v>0.06782508675002916</v>
+      </c>
+      <c r="J9">
+        <v>-0.02052657158259243</v>
+      </c>
+      <c r="K9">
+        <v>-0.06775769716827709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.274313432078241</v>
+        <v>0.2481505886388763</v>
       </c>
       <c r="C10">
-        <v>0.08979958492185561</v>
+        <v>0.09338607800230996</v>
       </c>
       <c r="D10">
-        <v>0.0211073141499679</v>
+        <v>-0.004725179080283775</v>
       </c>
       <c r="E10">
-        <v>-0.03531900548346072</v>
+        <v>-0.01291224029196358</v>
       </c>
       <c r="F10">
-        <v>-0.002308069535185624</v>
+        <v>0.009626207102445489</v>
       </c>
       <c r="G10">
-        <v>0.0185362491428842</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01484449657228872</v>
+      </c>
+      <c r="H10">
+        <v>-0.03906682207734458</v>
+      </c>
+      <c r="I10">
+        <v>0.0004652436217842987</v>
+      </c>
+      <c r="J10">
+        <v>-0.1750103309654188</v>
+      </c>
+      <c r="K10">
+        <v>0.1092717867763943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.007609031549582704</v>
+        <v>0.01670192045241626</v>
       </c>
       <c r="C11">
-        <v>-0.07175697339368577</v>
+        <v>-0.08417514136689756</v>
       </c>
       <c r="D11">
-        <v>-0.02448421575292063</v>
+        <v>0.03780381794834715</v>
       </c>
       <c r="E11">
-        <v>-0.01910962411012615</v>
+        <v>0.007067367238232703</v>
       </c>
       <c r="F11">
-        <v>-0.0134022136859229</v>
+        <v>0.01468292661147842</v>
       </c>
       <c r="G11">
-        <v>0.0405621740248782</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.00667393368152031</v>
+      </c>
+      <c r="H11">
+        <v>-0.03147757076305939</v>
+      </c>
+      <c r="I11">
+        <v>0.01912896083519466</v>
+      </c>
+      <c r="J11">
+        <v>0.02070715063985435</v>
+      </c>
+      <c r="K11">
+        <v>0.02489918680841071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.006246288452709378</v>
+        <v>0.01644691065053937</v>
       </c>
       <c r="C12">
-        <v>-0.05663623178077868</v>
+        <v>-0.05885185616618022</v>
       </c>
       <c r="D12">
-        <v>-0.0293041574302398</v>
+        <v>0.02232357444939793</v>
       </c>
       <c r="E12">
-        <v>-0.0126352786273636</v>
+        <v>-0.01634304049940642</v>
       </c>
       <c r="F12">
-        <v>0.01774273224254671</v>
+        <v>0.0215617173274724</v>
       </c>
       <c r="G12">
-        <v>0.0646239712599336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02429733077052911</v>
+      </c>
+      <c r="H12">
+        <v>-0.03055258891523404</v>
+      </c>
+      <c r="I12">
+        <v>0.01695436346742082</v>
+      </c>
+      <c r="J12">
+        <v>0.01464544767900286</v>
+      </c>
+      <c r="K12">
+        <v>0.01347239177892504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.0174257174906909</v>
+        <v>0.007178878569179208</v>
       </c>
       <c r="C13">
-        <v>-0.1311852844502672</v>
+        <v>-0.122701189751408</v>
       </c>
       <c r="D13">
-        <v>-0.04911011499218984</v>
+        <v>0.04065422786060798</v>
       </c>
       <c r="E13">
-        <v>0.05595706846223065</v>
+        <v>-0.151724880700684</v>
       </c>
       <c r="F13">
-        <v>0.01938543317176868</v>
+        <v>-0.06796074963965057</v>
       </c>
       <c r="G13">
-        <v>0.1704913880517888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1107925145442093</v>
+      </c>
+      <c r="H13">
+        <v>-0.1349328339742752</v>
+      </c>
+      <c r="I13">
+        <v>-0.1687565941683714</v>
+      </c>
+      <c r="J13">
+        <v>-0.138925219749456</v>
+      </c>
+      <c r="K13">
+        <v>0.1979749894051062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.009604378566384453</v>
+        <v>0.01966234983879731</v>
       </c>
       <c r="C14">
-        <v>-0.07256990185415323</v>
+        <v>-0.07641875060358257</v>
       </c>
       <c r="D14">
-        <v>-0.02632036840758407</v>
+        <v>0.04934554938966047</v>
       </c>
       <c r="E14">
-        <v>0.03641387690680574</v>
+        <v>-0.04821816459203224</v>
       </c>
       <c r="F14">
-        <v>0.01792678287261196</v>
+        <v>0.01550443714107522</v>
       </c>
       <c r="G14">
-        <v>0.05854250202315877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.06833194833914856</v>
+      </c>
+      <c r="H14">
+        <v>-0.2104423069808064</v>
+      </c>
+      <c r="I14">
+        <v>-0.006609888853156601</v>
+      </c>
+      <c r="J14">
+        <v>0.04929496206366453</v>
+      </c>
+      <c r="K14">
+        <v>0.09584856828392987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.00875150692487929</v>
+        <v>0.00330810161972562</v>
       </c>
       <c r="C15">
-        <v>-0.1028020636801485</v>
+        <v>-0.0830082740980715</v>
       </c>
       <c r="D15">
-        <v>-0.03716583199685236</v>
+        <v>0.03518235635508743</v>
       </c>
       <c r="E15">
-        <v>0.05364808220968697</v>
+        <v>-0.005718265065717974</v>
       </c>
       <c r="F15">
-        <v>-0.03284922698218485</v>
+        <v>-0.02395127963967931</v>
       </c>
       <c r="G15">
-        <v>0.03139728534583978</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02998561617228866</v>
+      </c>
+      <c r="H15">
+        <v>-0.09399594591201224</v>
+      </c>
+      <c r="I15">
+        <v>0.02500029425701005</v>
+      </c>
+      <c r="J15">
+        <v>0.02073382106364997</v>
+      </c>
+      <c r="K15">
+        <v>0.05386001664728306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.01047598796856961</v>
+        <v>0.01563009579479977</v>
       </c>
       <c r="C16">
-        <v>-0.06392287825467738</v>
+        <v>-0.06381056988234664</v>
       </c>
       <c r="D16">
-        <v>-0.01687214105025854</v>
+        <v>0.0263485242498598</v>
       </c>
       <c r="E16">
-        <v>-0.01271271106906511</v>
+        <v>0.002316770302865092</v>
       </c>
       <c r="F16">
-        <v>0.005395291606097407</v>
+        <v>0.0108004950039145</v>
       </c>
       <c r="G16">
-        <v>0.03089422319913467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.006556629686736729</v>
+      </c>
+      <c r="H16">
+        <v>-0.02433894575532408</v>
+      </c>
+      <c r="I16">
+        <v>0.01752033980836464</v>
+      </c>
+      <c r="J16">
+        <v>0.01543165085723608</v>
+      </c>
+      <c r="K16">
+        <v>0.007279060010363603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01420541365925451</v>
+        <v>0.01535184270471323</v>
       </c>
       <c r="C20">
-        <v>-0.08965056209810203</v>
+        <v>-0.08654240715353168</v>
       </c>
       <c r="D20">
-        <v>-0.01892954568894312</v>
+        <v>0.02487845844918051</v>
       </c>
       <c r="E20">
-        <v>-0.01215560464557703</v>
+        <v>0.02523265592841624</v>
       </c>
       <c r="F20">
-        <v>-0.04815817534103826</v>
+        <v>0.003039000415170962</v>
       </c>
       <c r="G20">
-        <v>0.08570392117011227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03745210209236315</v>
+      </c>
+      <c r="H20">
+        <v>-0.07267734213851511</v>
+      </c>
+      <c r="I20">
+        <v>0.02002485283492265</v>
+      </c>
+      <c r="J20">
+        <v>0.010439958984601</v>
+      </c>
+      <c r="K20">
+        <v>-0.01183243404730629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.0006324546533642987</v>
+        <v>0.01498567086027266</v>
       </c>
       <c r="C21">
-        <v>-0.09255445032520353</v>
+        <v>-0.07336105335058445</v>
       </c>
       <c r="D21">
-        <v>0.03183043340622628</v>
+        <v>0.02073347346637983</v>
       </c>
       <c r="E21">
-        <v>0.04821511187906492</v>
+        <v>-0.08876335905595265</v>
       </c>
       <c r="F21">
-        <v>0.04796120367630991</v>
+        <v>0.01004047291240803</v>
       </c>
       <c r="G21">
-        <v>0.04549855915921031</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01247051145509751</v>
+      </c>
+      <c r="H21">
+        <v>-0.1423620339261054</v>
+      </c>
+      <c r="I21">
+        <v>-0.04600509192329925</v>
+      </c>
+      <c r="J21">
+        <v>-0.01261367093089538</v>
+      </c>
+      <c r="K21">
+        <v>0.04574790442164123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.0416668368691613</v>
+        <v>0.008361808185415527</v>
       </c>
       <c r="C22">
-        <v>-0.2037076161688051</v>
+        <v>-0.1767259784096614</v>
       </c>
       <c r="D22">
-        <v>0.08481347756335973</v>
+        <v>0.01422687144180986</v>
       </c>
       <c r="E22">
-        <v>0.2783363338639343</v>
+        <v>-0.03547383303840802</v>
       </c>
       <c r="F22">
-        <v>-0.2106996951472486</v>
+        <v>-0.5329849289112788</v>
       </c>
       <c r="G22">
-        <v>-0.1683957538549248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.01221917622106039</v>
+      </c>
+      <c r="H22">
+        <v>0.2936294294596432</v>
+      </c>
+      <c r="I22">
+        <v>-0.04768634187029076</v>
+      </c>
+      <c r="J22">
+        <v>0.01464660334863101</v>
+      </c>
+      <c r="K22">
+        <v>0.2171531518435453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04113774666327703</v>
+        <v>0.01340924524037993</v>
       </c>
       <c r="C23">
-        <v>-0.2042344091974547</v>
+        <v>-0.1804856958135388</v>
       </c>
       <c r="D23">
-        <v>0.08454841247646105</v>
+        <v>0.01347592270024294</v>
       </c>
       <c r="E23">
-        <v>0.2745072989272027</v>
+        <v>-0.03510148310611533</v>
       </c>
       <c r="F23">
-        <v>-0.2085162744022923</v>
+        <v>-0.5145131010786387</v>
       </c>
       <c r="G23">
-        <v>-0.1679705417290732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.0141567125899169</v>
+      </c>
+      <c r="H23">
+        <v>0.2725064713585338</v>
+      </c>
+      <c r="I23">
+        <v>-0.03952639664771623</v>
+      </c>
+      <c r="J23">
+        <v>0.01764985879738588</v>
+      </c>
+      <c r="K23">
+        <v>0.2040318111300067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.004606827425328688</v>
+        <v>0.01686755337680092</v>
       </c>
       <c r="C24">
-        <v>-0.06667291426419254</v>
+        <v>-0.0689675422934426</v>
       </c>
       <c r="D24">
-        <v>-0.03777270535582596</v>
+        <v>0.03875971919224999</v>
       </c>
       <c r="E24">
-        <v>-0.01250849135958718</v>
+        <v>0.005290649666270973</v>
       </c>
       <c r="F24">
-        <v>-0.00560920663537717</v>
+        <v>0.01096689361165362</v>
       </c>
       <c r="G24">
-        <v>0.05406373990459697</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02224074151126301</v>
+      </c>
+      <c r="H24">
+        <v>-0.04294972016309006</v>
+      </c>
+      <c r="I24">
+        <v>0.02310979190153753</v>
+      </c>
+      <c r="J24">
+        <v>0.01433165558884729</v>
+      </c>
+      <c r="K24">
+        <v>0.01609539970498892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.007971675799981986</v>
+        <v>0.02104086347563534</v>
       </c>
       <c r="C25">
-        <v>-0.06930754785283134</v>
+        <v>-0.07134401515104528</v>
       </c>
       <c r="D25">
-        <v>-0.01651125727598659</v>
+        <v>0.02892716637023093</v>
       </c>
       <c r="E25">
-        <v>-0.02018305981384762</v>
+        <v>0.00663809848217469</v>
       </c>
       <c r="F25">
-        <v>-0.007636720619490901</v>
+        <v>0.008173477924584499</v>
       </c>
       <c r="G25">
-        <v>0.04998140449002929</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.01632474159390607</v>
+      </c>
+      <c r="H25">
+        <v>-0.03701760213141433</v>
+      </c>
+      <c r="I25">
+        <v>0.02205456840528584</v>
+      </c>
+      <c r="J25">
+        <v>0.003599311588761934</v>
+      </c>
+      <c r="K25">
+        <v>0.02851750428301814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.006416336846479723</v>
+        <v>0.02475218978696225</v>
       </c>
       <c r="C26">
-        <v>-0.06398570196018896</v>
+        <v>-0.05979446136239615</v>
       </c>
       <c r="D26">
-        <v>-0.05473066117541328</v>
+        <v>0.06388664190138436</v>
       </c>
       <c r="E26">
-        <v>0.009928149919111021</v>
+        <v>0.004276259167981141</v>
       </c>
       <c r="F26">
-        <v>0.01865178827822909</v>
+        <v>0.0204757417054166</v>
       </c>
       <c r="G26">
-        <v>0.02782888142319705</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0101988279865119</v>
+      </c>
+      <c r="H26">
+        <v>-0.09965900343691202</v>
+      </c>
+      <c r="I26">
+        <v>0.07265268250562631</v>
+      </c>
+      <c r="J26">
+        <v>0.02061046099812003</v>
+      </c>
+      <c r="K26">
+        <v>-0.09308676303098096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.373171072137065</v>
+        <v>0.3165212680909132</v>
       </c>
       <c r="C28">
-        <v>0.1041844159386457</v>
+        <v>0.1075702086001394</v>
       </c>
       <c r="D28">
-        <v>0.02434432835621402</v>
+        <v>-0.03188156134522552</v>
       </c>
       <c r="E28">
-        <v>-0.08604235996557559</v>
+        <v>-0.02727189682869673</v>
       </c>
       <c r="F28">
-        <v>0.08546978814975376</v>
+        <v>-0.03448983015220122</v>
       </c>
       <c r="G28">
-        <v>-0.02259579984066031</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1313222483139713</v>
+      </c>
+      <c r="H28">
+        <v>-0.05307991608443234</v>
+      </c>
+      <c r="I28">
+        <v>-0.07340126876157167</v>
+      </c>
+      <c r="J28">
+        <v>-0.1968194009957164</v>
+      </c>
+      <c r="K28">
+        <v>-0.003485416368060316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.008571713180363205</v>
+        <v>0.01411728081876639</v>
       </c>
       <c r="C29">
-        <v>-0.07859546703888999</v>
+        <v>-0.08260376434560333</v>
       </c>
       <c r="D29">
-        <v>-0.03960676029979033</v>
+        <v>0.05406901893051501</v>
       </c>
       <c r="E29">
-        <v>0.03308267112618514</v>
+        <v>-0.05771782659723232</v>
       </c>
       <c r="F29">
-        <v>0.008312089301714315</v>
+        <v>0.01075081733402145</v>
       </c>
       <c r="G29">
-        <v>0.09194920986915689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1066474415331643</v>
+      </c>
+      <c r="H29">
+        <v>-0.2977959589035277</v>
+      </c>
+      <c r="I29">
+        <v>-0.01044713918428556</v>
+      </c>
+      <c r="J29">
+        <v>0.04367591518921561</v>
+      </c>
+      <c r="K29">
+        <v>0.1463925718135919</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.03241592411863713</v>
+        <v>0.03190039990307774</v>
       </c>
       <c r="C30">
-        <v>-0.1776266335704887</v>
+        <v>-0.1460666547722189</v>
       </c>
       <c r="D30">
-        <v>-0.05902721557276307</v>
+        <v>0.05684065236320039</v>
       </c>
       <c r="E30">
-        <v>0.03730161460398639</v>
+        <v>-0.00148644465996953</v>
       </c>
       <c r="F30">
-        <v>-0.05555525720010367</v>
+        <v>-0.06553851627827782</v>
       </c>
       <c r="G30">
-        <v>0.0003189767935309236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01095126926688705</v>
+      </c>
+      <c r="H30">
+        <v>-0.03394867184667161</v>
+      </c>
+      <c r="I30">
+        <v>0.03800019767951899</v>
+      </c>
+      <c r="J30">
+        <v>0.02114083841562141</v>
+      </c>
+      <c r="K30">
+        <v>-0.08321191443561711</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003530630964321103</v>
+        <v>0.01363887490297312</v>
       </c>
       <c r="C31">
-        <v>-0.06443056016604129</v>
+        <v>-0.0820761069644456</v>
       </c>
       <c r="D31">
-        <v>-0.0344778028533358</v>
+        <v>0.04095982755543039</v>
       </c>
       <c r="E31">
-        <v>-0.01691578628034984</v>
+        <v>-0.001902668093105636</v>
       </c>
       <c r="F31">
-        <v>0.01500588926279371</v>
+        <v>0.002078764040158619</v>
       </c>
       <c r="G31">
-        <v>0.01368101421069693</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02869548334959183</v>
+      </c>
+      <c r="H31">
+        <v>-0.0364629011014433</v>
+      </c>
+      <c r="I31">
+        <v>0.0222965393624616</v>
+      </c>
+      <c r="J31">
+        <v>0.0112940292509692</v>
+      </c>
+      <c r="K31">
+        <v>0.04491517465024259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.02048843969531967</v>
+        <v>0.02195671001239385</v>
       </c>
       <c r="C32">
-        <v>-0.08701393859511337</v>
+        <v>-0.05564105148719833</v>
       </c>
       <c r="D32">
-        <v>0.008871775800791348</v>
+        <v>0.01735889418245877</v>
       </c>
       <c r="E32">
-        <v>0.1599442649127519</v>
+        <v>-0.09406117380193908</v>
       </c>
       <c r="F32">
-        <v>-0.01264165387919367</v>
+        <v>-0.0735999823795043</v>
       </c>
       <c r="G32">
-        <v>0.05919245908477072</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.06150371128175185</v>
+      </c>
+      <c r="H32">
+        <v>-0.1711717292956935</v>
+      </c>
+      <c r="I32">
+        <v>-0.125854074169772</v>
+      </c>
+      <c r="J32">
+        <v>-0.2206143269702678</v>
+      </c>
+      <c r="K32">
+        <v>0.01578647437071053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01654373947382701</v>
+        <v>0.01785937617579135</v>
       </c>
       <c r="C33">
-        <v>-0.09662884923844828</v>
+        <v>-0.1073607621263344</v>
       </c>
       <c r="D33">
-        <v>-0.05922435850350469</v>
+        <v>0.04852873526003761</v>
       </c>
       <c r="E33">
-        <v>0.01208041431461883</v>
+        <v>0.003972813555067873</v>
       </c>
       <c r="F33">
-        <v>0.003814786910721216</v>
+        <v>-0.01220879593500943</v>
       </c>
       <c r="G33">
-        <v>0.02877753871193192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02150058237838125</v>
+      </c>
+      <c r="H33">
+        <v>-0.05804972410043008</v>
+      </c>
+      <c r="I33">
+        <v>0.02606117439836159</v>
+      </c>
+      <c r="J33">
+        <v>-0.02490047063388457</v>
+      </c>
+      <c r="K33">
+        <v>0.01255196244783173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.00277211815918185</v>
+        <v>0.01620220837731249</v>
       </c>
       <c r="C34">
-        <v>-0.05327588712124017</v>
+        <v>-0.05102000308085668</v>
       </c>
       <c r="D34">
-        <v>-0.02016271909489283</v>
+        <v>0.02002876735923308</v>
       </c>
       <c r="E34">
-        <v>0.001153207034203224</v>
+        <v>-0.003077565281961703</v>
       </c>
       <c r="F34">
-        <v>0.01289292327742751</v>
+        <v>0.01287878741150491</v>
       </c>
       <c r="G34">
-        <v>0.03834030907542285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01624019066071627</v>
+      </c>
+      <c r="H34">
+        <v>-0.008911280078687293</v>
+      </c>
+      <c r="I34">
+        <v>0.02239998279785536</v>
+      </c>
+      <c r="J34">
+        <v>0.009092972815342354</v>
+      </c>
+      <c r="K34">
+        <v>0.01353040817679138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.003583341045600403</v>
+        <v>0.01000129880257301</v>
       </c>
       <c r="C35">
-        <v>-0.02235989355884607</v>
+        <v>-0.04237497929500787</v>
       </c>
       <c r="D35">
-        <v>-0.006593107722675911</v>
+        <v>0.02146755415159826</v>
       </c>
       <c r="E35">
-        <v>0.01018204231921086</v>
+        <v>-0.01687110704664613</v>
       </c>
       <c r="F35">
-        <v>-0.003592615961199733</v>
+        <v>-0.001012238819150121</v>
       </c>
       <c r="G35">
-        <v>0.02751714466239187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04242784191592529</v>
+      </c>
+      <c r="H35">
+        <v>-0.1518958408348733</v>
+      </c>
+      <c r="I35">
+        <v>0.01803164859226942</v>
+      </c>
+      <c r="J35">
+        <v>0.003954306580100655</v>
+      </c>
+      <c r="K35">
+        <v>0.1339572216414868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.006643932731664639</v>
+        <v>0.016565212916364</v>
       </c>
       <c r="C36">
-        <v>-0.05551299789549167</v>
+        <v>-0.05078653104302365</v>
       </c>
       <c r="D36">
-        <v>-0.0484984627013999</v>
+        <v>0.04874540354848967</v>
       </c>
       <c r="E36">
-        <v>0.004406411860488449</v>
+        <v>-0.003586724417143761</v>
       </c>
       <c r="F36">
-        <v>0.003211481506454271</v>
+        <v>-0.002008045044429039</v>
       </c>
       <c r="G36">
-        <v>0.01808966225121776</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.003947012093158831</v>
+      </c>
+      <c r="H36">
+        <v>-0.07416704621421932</v>
+      </c>
+      <c r="I36">
+        <v>0.01704515435872089</v>
+      </c>
+      <c r="J36">
+        <v>0.007045718163221276</v>
+      </c>
+      <c r="K36">
+        <v>-0.03126654012937751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.03184573707699778</v>
+        <v>0.01326376459299454</v>
       </c>
       <c r="C38">
-        <v>-0.05845272929797388</v>
+        <v>-0.06315300463648034</v>
       </c>
       <c r="D38">
-        <v>-0.04269411776493801</v>
+        <v>0.04176312708808327</v>
       </c>
       <c r="E38">
-        <v>-0.005500206568874419</v>
+        <v>0.02628314494650679</v>
       </c>
       <c r="F38">
-        <v>-0.008776012434310195</v>
+        <v>-0.01793576620964636</v>
       </c>
       <c r="G38">
-        <v>0.006808175211384632</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.007565997965451873</v>
+      </c>
+      <c r="H38">
+        <v>-0.08899590148319904</v>
+      </c>
+      <c r="I38">
+        <v>-0.02358030191775048</v>
+      </c>
+      <c r="J38">
+        <v>-0.05600222307978823</v>
+      </c>
+      <c r="K38">
+        <v>0.05423069748172448</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.001424847510911452</v>
+        <v>0.01741136257345564</v>
       </c>
       <c r="C39">
-        <v>-0.1320324779773799</v>
+        <v>-0.1280468686584676</v>
       </c>
       <c r="D39">
-        <v>-0.03868117565069169</v>
+        <v>0.05493463904256491</v>
       </c>
       <c r="E39">
-        <v>0.01105628348722112</v>
+        <v>-0.0042609391543955</v>
       </c>
       <c r="F39">
-        <v>-0.02753021356520604</v>
+        <v>0.0001848177222590161</v>
       </c>
       <c r="G39">
-        <v>0.07141537094236128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0391317212863686</v>
+      </c>
+      <c r="H39">
+        <v>-0.05302048694959626</v>
+      </c>
+      <c r="I39">
+        <v>0.01081062581279666</v>
+      </c>
+      <c r="J39">
+        <v>0.06822535312326092</v>
+      </c>
+      <c r="K39">
+        <v>-0.01936637622365571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.01032937325946292</v>
+        <v>0.01340792817818063</v>
       </c>
       <c r="C40">
-        <v>-0.02881370128993773</v>
+        <v>-0.05803479283515777</v>
       </c>
       <c r="D40">
-        <v>-0.03019602045170472</v>
+        <v>0.03730723660905418</v>
       </c>
       <c r="E40">
-        <v>0.1277886247327792</v>
+        <v>-0.04392432084367526</v>
       </c>
       <c r="F40">
-        <v>-0.03726451893024458</v>
+        <v>-0.029401254690654</v>
       </c>
       <c r="G40">
-        <v>0.08466108849458182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.149886194145586</v>
+      </c>
+      <c r="H40">
+        <v>-0.03696338473020432</v>
+      </c>
+      <c r="I40">
+        <v>0.05064066628521151</v>
+      </c>
+      <c r="J40">
+        <v>-0.01427596665333542</v>
+      </c>
+      <c r="K40">
+        <v>0.2661285510923174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01216621781347609</v>
+        <v>0.02201190664634444</v>
       </c>
       <c r="C41">
-        <v>-0.02308360155466779</v>
+        <v>-0.04743588237628647</v>
       </c>
       <c r="D41">
-        <v>-0.005246558959220533</v>
+        <v>0.01722338760539118</v>
       </c>
       <c r="E41">
-        <v>-0.01891785617885686</v>
+        <v>0.007562882189755328</v>
       </c>
       <c r="F41">
-        <v>0.0329897233912742</v>
+        <v>0.02387806151684099</v>
       </c>
       <c r="G41">
-        <v>-0.0329053617211322</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01137291180725766</v>
+      </c>
+      <c r="H41">
+        <v>-0.0235633491718665</v>
+      </c>
+      <c r="I41">
+        <v>-0.006715362826311052</v>
+      </c>
+      <c r="J41">
+        <v>-0.02312862482630381</v>
+      </c>
+      <c r="K41">
+        <v>0.05720533037926505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.00453904217691876</v>
+        <v>0.018550860739396</v>
       </c>
       <c r="C43">
-        <v>-0.0215140167587997</v>
+        <v>-0.04405021633354983</v>
       </c>
       <c r="D43">
-        <v>-0.01016656796459054</v>
+        <v>0.02991930167037074</v>
       </c>
       <c r="E43">
-        <v>-0.009860192927320238</v>
+        <v>0.01280007383276836</v>
       </c>
       <c r="F43">
-        <v>0.004683750783160431</v>
+        <v>0.008644771069022558</v>
       </c>
       <c r="G43">
-        <v>-0.002180825155186341</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.003865048341220032</v>
+      </c>
+      <c r="H43">
+        <v>-0.04238218240610845</v>
+      </c>
+      <c r="I43">
+        <v>-0.002655579009577128</v>
+      </c>
+      <c r="J43">
+        <v>0.004237937664313267</v>
+      </c>
+      <c r="K43">
+        <v>0.04444097579788429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02503811025189353</v>
+        <v>0.01492783250254167</v>
       </c>
       <c r="C44">
-        <v>-0.09496715528032587</v>
+        <v>-0.09741626634001238</v>
       </c>
       <c r="D44">
-        <v>-0.02384803295204409</v>
+        <v>0.05658946856523453</v>
       </c>
       <c r="E44">
-        <v>0.04600728065408095</v>
+        <v>0.006501782878636058</v>
       </c>
       <c r="F44">
-        <v>-0.06168855377830305</v>
+        <v>-0.06450383753497156</v>
       </c>
       <c r="G44">
-        <v>0.03630924159752864</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04281842225107407</v>
+      </c>
+      <c r="H44">
+        <v>-0.05305149827581262</v>
+      </c>
+      <c r="I44">
+        <v>0.01426844204143239</v>
+      </c>
+      <c r="J44">
+        <v>0.04889108255684643</v>
+      </c>
+      <c r="K44">
+        <v>-0.08442688234196312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.005908985974840211</v>
+        <v>0.004787352230026044</v>
       </c>
       <c r="C46">
-        <v>-0.07278585168442916</v>
+        <v>-0.06503541120177435</v>
       </c>
       <c r="D46">
-        <v>-0.04128555918338164</v>
+        <v>0.03023359159341363</v>
       </c>
       <c r="E46">
-        <v>0.02626040052186235</v>
+        <v>-0.01128463470524312</v>
       </c>
       <c r="F46">
-        <v>-0.001585249563554173</v>
+        <v>0.01561153541283994</v>
       </c>
       <c r="G46">
-        <v>0.05400412255695922</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03194610869784703</v>
+      </c>
+      <c r="H46">
+        <v>-0.1053232429809607</v>
+      </c>
+      <c r="I46">
+        <v>-0.01486336882318246</v>
+      </c>
+      <c r="J46">
+        <v>0.02082014892137204</v>
+      </c>
+      <c r="K46">
+        <v>0.07027912919157574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.0107592772099912</v>
+        <v>0.02444784938133784</v>
       </c>
       <c r="C47">
-        <v>-0.08998457192610847</v>
+        <v>-0.08422483031752813</v>
       </c>
       <c r="D47">
-        <v>-0.04017039597819907</v>
+        <v>0.04485361777568297</v>
       </c>
       <c r="E47">
-        <v>-0.02209642965767981</v>
+        <v>-0.005652771612410117</v>
       </c>
       <c r="F47">
-        <v>0.04764305400882353</v>
+        <v>0.02193336490638099</v>
       </c>
       <c r="G47">
-        <v>0.04594127246542769</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.001581875202595299</v>
+      </c>
+      <c r="H47">
+        <v>-0.07315890122516788</v>
+      </c>
+      <c r="I47">
+        <v>-0.005369838029842683</v>
+      </c>
+      <c r="J47">
+        <v>-0.02089938605630242</v>
+      </c>
+      <c r="K47">
+        <v>0.047449258442778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01200768530869971</v>
+        <v>0.02211243767080992</v>
       </c>
       <c r="C48">
-        <v>-0.05851663518578943</v>
+        <v>-0.05349702822066081</v>
       </c>
       <c r="D48">
-        <v>-0.05747581481693786</v>
+        <v>0.05509996658676656</v>
       </c>
       <c r="E48">
-        <v>-0.001787173236124731</v>
+        <v>0.003534794858684312</v>
       </c>
       <c r="F48">
-        <v>0.003698847370232274</v>
+        <v>0.007022648271172523</v>
       </c>
       <c r="G48">
-        <v>0.01754504865382229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.007437355050809968</v>
+      </c>
+      <c r="H48">
+        <v>-0.09760119607053172</v>
+      </c>
+      <c r="I48">
+        <v>0.04631917163394222</v>
+      </c>
+      <c r="J48">
+        <v>0.01347836273399812</v>
+      </c>
+      <c r="K48">
+        <v>-0.07461303132822328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.007492491893847523</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02606162354728801</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0008518584391386366</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.0130744440301523</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03256017835472107</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03388330126467765</v>
+      </c>
+      <c r="H49">
+        <v>0.01986910919822889</v>
+      </c>
+      <c r="I49">
+        <v>0.059774829795914</v>
+      </c>
+      <c r="J49">
+        <v>0.03077114047919857</v>
+      </c>
+      <c r="K49">
+        <v>-0.02688530602179168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.0009562128680240549</v>
+        <v>0.01421486979685858</v>
       </c>
       <c r="C50">
-        <v>-0.07360994144445074</v>
+        <v>-0.07970193497910164</v>
       </c>
       <c r="D50">
-        <v>-0.02709373266432233</v>
+        <v>0.0292957900708727</v>
       </c>
       <c r="E50">
-        <v>-0.000786341216154526</v>
+        <v>0.0003729305224196612</v>
       </c>
       <c r="F50">
-        <v>-0.006278362693527786</v>
+        <v>-0.003259034277408343</v>
       </c>
       <c r="G50">
-        <v>0.006334910050866311</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01448401508121406</v>
+      </c>
+      <c r="H50">
+        <v>-0.05960374967209523</v>
+      </c>
+      <c r="I50">
+        <v>0.003878872235362164</v>
+      </c>
+      <c r="J50">
+        <v>-0.04300773015850351</v>
+      </c>
+      <c r="K50">
+        <v>0.0380299035441527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.003734327862750167</v>
+        <v>-0.006362077377290589</v>
       </c>
       <c r="C51">
-        <v>-0.07557465548952344</v>
+        <v>-0.03733075457587322</v>
       </c>
       <c r="D51">
-        <v>-0.002562024393708465</v>
+        <v>0.02241632075960126</v>
       </c>
       <c r="E51">
-        <v>0.05887418156741688</v>
+        <v>-0.01930452975876424</v>
       </c>
       <c r="F51">
-        <v>-0.05366313100542561</v>
+        <v>-0.02635300699875131</v>
       </c>
       <c r="G51">
-        <v>0.0169562331961523</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02767631707814513</v>
+      </c>
+      <c r="H51">
+        <v>-0.09441202019278906</v>
+      </c>
+      <c r="I51">
+        <v>0.04035842221177074</v>
+      </c>
+      <c r="J51">
+        <v>-0.006454972760158047</v>
+      </c>
+      <c r="K51">
+        <v>-0.1098005317393967</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.04469853129319997</v>
+        <v>0.05837503410616271</v>
       </c>
       <c r="C53">
-        <v>-0.1364053025795475</v>
+        <v>-0.1313216763604622</v>
       </c>
       <c r="D53">
-        <v>-0.06286379639538228</v>
+        <v>0.05646674085271963</v>
       </c>
       <c r="E53">
-        <v>-0.1309127823396478</v>
+        <v>0.005343422475654663</v>
       </c>
       <c r="F53">
-        <v>0.05559625838656346</v>
+        <v>0.07134960322108545</v>
       </c>
       <c r="G53">
-        <v>-0.03552299088685743</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08722859324497581</v>
+      </c>
+      <c r="H53">
+        <v>0.03299144441052424</v>
+      </c>
+      <c r="I53">
+        <v>0.002198418117889923</v>
+      </c>
+      <c r="J53">
+        <v>-0.04231618024224972</v>
+      </c>
+      <c r="K53">
+        <v>0.03296999388598806</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.00589993105604671</v>
+        <v>0.01903506334959209</v>
       </c>
       <c r="C54">
-        <v>-0.0752419332991271</v>
+        <v>-0.07853351585785315</v>
       </c>
       <c r="D54">
-        <v>-0.00826720328049305</v>
+        <v>0.01266971163463268</v>
       </c>
       <c r="E54">
-        <v>-0.0274058777337375</v>
+        <v>-0.006318958048016532</v>
       </c>
       <c r="F54">
-        <v>0.007613486658076789</v>
+        <v>0.02658683812395576</v>
       </c>
       <c r="G54">
-        <v>0.01974499983065625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.01330968360229804</v>
+      </c>
+      <c r="H54">
+        <v>-0.05311947467003321</v>
+      </c>
+      <c r="I54">
+        <v>0.03102416908425991</v>
+      </c>
+      <c r="J54">
+        <v>0.02489471011507424</v>
+      </c>
+      <c r="K54">
+        <v>0.01139366508516312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.02675000433911276</v>
+        <v>0.03372296989843287</v>
       </c>
       <c r="C55">
-        <v>-0.0947129184970892</v>
+        <v>-0.08671010905891166</v>
       </c>
       <c r="D55">
-        <v>-0.0676833251545927</v>
+        <v>0.05517573950549531</v>
       </c>
       <c r="E55">
-        <v>-0.0581809720540511</v>
+        <v>0.01193217700882804</v>
       </c>
       <c r="F55">
-        <v>0.0441366318613489</v>
+        <v>0.05197305578775253</v>
       </c>
       <c r="G55">
-        <v>-0.0005979354957968555</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.04263098607499843</v>
+      </c>
+      <c r="H55">
+        <v>0.01793297305723461</v>
+      </c>
+      <c r="I55">
+        <v>0.01240927233471103</v>
+      </c>
+      <c r="J55">
+        <v>0.006952335242303528</v>
+      </c>
+      <c r="K55">
+        <v>0.01636513384491075</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.0291415422358712</v>
+        <v>0.04535940877091701</v>
       </c>
       <c r="C56">
-        <v>-0.1690429029029944</v>
+        <v>-0.150311600214643</v>
       </c>
       <c r="D56">
-        <v>-0.0568451288277704</v>
+        <v>0.07949890943377347</v>
       </c>
       <c r="E56">
-        <v>-0.1178619844734938</v>
+        <v>-0.01043874410535462</v>
       </c>
       <c r="F56">
-        <v>0.08926285847818616</v>
+        <v>0.09659872744211719</v>
       </c>
       <c r="G56">
-        <v>-0.07547150265087771</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1566946253341293</v>
+      </c>
+      <c r="H56">
+        <v>0.05327129365898243</v>
+      </c>
+      <c r="I56">
+        <v>0.02281162252402723</v>
+      </c>
+      <c r="J56">
+        <v>-0.03036040914143279</v>
+      </c>
+      <c r="K56">
+        <v>-0.01296587378447393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03682613923025754</v>
+        <v>0.02258162402169991</v>
       </c>
       <c r="C58">
-        <v>-0.264466316554912</v>
+        <v>-0.1766308265111379</v>
       </c>
       <c r="D58">
-        <v>0.06489967669354654</v>
+        <v>0.0377992458542951</v>
       </c>
       <c r="E58">
-        <v>0.2167779642529305</v>
+        <v>-0.02851522156631987</v>
       </c>
       <c r="F58">
-        <v>-0.3255047554635365</v>
+        <v>-0.3261988329359763</v>
       </c>
       <c r="G58">
-        <v>-0.1957011877432331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.05881916870225105</v>
+      </c>
+      <c r="H58">
+        <v>-0.03773029360781389</v>
+      </c>
+      <c r="I58">
+        <v>-0.0379805140826401</v>
+      </c>
+      <c r="J58">
+        <v>-0.06106111245606822</v>
+      </c>
+      <c r="K58">
+        <v>-0.4428398360699926</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.279700265925605</v>
+        <v>0.2880164751008483</v>
       </c>
       <c r="C59">
-        <v>0.006900939661563545</v>
+        <v>0.04505808982181143</v>
       </c>
       <c r="D59">
-        <v>0.034115460894222</v>
+        <v>-0.006164570152586577</v>
       </c>
       <c r="E59">
-        <v>0.05551518280601589</v>
+        <v>-0.03438890021210583</v>
       </c>
       <c r="F59">
-        <v>0.04525003044840648</v>
+        <v>-0.0389983196289568</v>
       </c>
       <c r="G59">
-        <v>0.01772832947504876</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.002648411665381088</v>
+      </c>
+      <c r="H59">
+        <v>0.02102475946104075</v>
+      </c>
+      <c r="I59">
+        <v>-0.0120709362842714</v>
+      </c>
+      <c r="J59">
+        <v>-0.01994354548380987</v>
+      </c>
+      <c r="K59">
+        <v>0.0256357150545476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1146129312048367</v>
+        <v>0.1474757820283523</v>
       </c>
       <c r="C60">
-        <v>-0.1531951180941787</v>
+        <v>-0.154557629279527</v>
       </c>
       <c r="D60">
-        <v>-0.07118875058530875</v>
+        <v>0.0472138494812392</v>
       </c>
       <c r="E60">
-        <v>-0.04707873856915483</v>
+        <v>-0.01649610627467436</v>
       </c>
       <c r="F60">
-        <v>0.05765547487675887</v>
+        <v>0.1346220697911847</v>
       </c>
       <c r="G60">
-        <v>0.3039755168987754</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2566782550913937</v>
+      </c>
+      <c r="H60">
+        <v>0.2303164610014307</v>
+      </c>
+      <c r="I60">
+        <v>0.004070452082381927</v>
+      </c>
+      <c r="J60">
+        <v>0.02524166187404406</v>
+      </c>
+      <c r="K60">
+        <v>-0.03362642547154805</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.00234332379344544</v>
+        <v>0.02027030611016173</v>
       </c>
       <c r="C61">
-        <v>-0.08706957174871557</v>
+        <v>-0.09700064794983627</v>
       </c>
       <c r="D61">
-        <v>-0.04797287156130768</v>
+        <v>0.05110915788144547</v>
       </c>
       <c r="E61">
-        <v>-0.02274028471441273</v>
+        <v>-0.002575356799245296</v>
       </c>
       <c r="F61">
-        <v>0.006170608589380316</v>
+        <v>0.03264351283605624</v>
       </c>
       <c r="G61">
-        <v>0.0702824173304193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02185020022396911</v>
+      </c>
+      <c r="H61">
+        <v>-0.063257703158099</v>
+      </c>
+      <c r="I61">
+        <v>0.03385539324842927</v>
+      </c>
+      <c r="J61">
+        <v>0.02410154586588788</v>
+      </c>
+      <c r="K61">
+        <v>0.02300347071047867</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002092483014859713</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.013007909660795</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003600798167358262</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.001746382240315929</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01352201625046217</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.01579694502162922</v>
+      </c>
+      <c r="H62">
+        <v>-0.005112621170457481</v>
+      </c>
+      <c r="I62">
+        <v>0.05840463958118652</v>
+      </c>
+      <c r="J62">
+        <v>-0.02237190283284394</v>
+      </c>
+      <c r="K62">
+        <v>0.009276033584741357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001609052884816236</v>
+        <v>0.02710784978259446</v>
       </c>
       <c r="C63">
-        <v>-0.06988907846945953</v>
+        <v>-0.06987140285516175</v>
       </c>
       <c r="D63">
-        <v>-0.03963385394817576</v>
+        <v>0.05929675723717903</v>
       </c>
       <c r="E63">
-        <v>-0.02881637448096937</v>
+        <v>-0.003208294818561367</v>
       </c>
       <c r="F63">
-        <v>-0.004053008619596006</v>
+        <v>0.02274990106224243</v>
       </c>
       <c r="G63">
-        <v>0.03013701184380809</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.002499067378484448</v>
+      </c>
+      <c r="H63">
+        <v>-0.06176832683386139</v>
+      </c>
+      <c r="I63">
+        <v>0.03889237948472848</v>
+      </c>
+      <c r="J63">
+        <v>0.003921246318407401</v>
+      </c>
+      <c r="K63">
+        <v>0.02243451287957125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.005873469946512055</v>
+        <v>0.01571442760002017</v>
       </c>
       <c r="C64">
-        <v>-0.08096339019167229</v>
+        <v>-0.09109207778114618</v>
       </c>
       <c r="D64">
-        <v>-0.06418159776384005</v>
+        <v>0.03307131672630689</v>
       </c>
       <c r="E64">
-        <v>0.01376862069866576</v>
+        <v>0.02208784098711731</v>
       </c>
       <c r="F64">
-        <v>-0.01948830138389614</v>
+        <v>-0.03512067152033987</v>
       </c>
       <c r="G64">
-        <v>0.05741529447783184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06774874948119398</v>
+      </c>
+      <c r="H64">
+        <v>-0.05136563663801912</v>
+      </c>
+      <c r="I64">
+        <v>0.03615794984961189</v>
+      </c>
+      <c r="J64">
+        <v>0.02604971838454961</v>
+      </c>
+      <c r="K64">
+        <v>0.02683109489178643</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01353651976563854</v>
+        <v>0.03000495288677076</v>
       </c>
       <c r="C65">
-        <v>-0.07326079494571956</v>
+        <v>-0.09367618121825345</v>
       </c>
       <c r="D65">
-        <v>-0.02448652800591855</v>
+        <v>0.01908316832821538</v>
       </c>
       <c r="E65">
-        <v>0.04004677808357349</v>
+        <v>0.02574145857763611</v>
       </c>
       <c r="F65">
-        <v>-0.03572778116817517</v>
+        <v>-0.009597785841314236</v>
       </c>
       <c r="G65">
-        <v>0.0312861973394445</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.09954986276767959</v>
+      </c>
+      <c r="H65">
+        <v>-0.008076551089763882</v>
+      </c>
+      <c r="I65">
+        <v>-0.013595311330919</v>
+      </c>
+      <c r="J65">
+        <v>0.07533797823985387</v>
+      </c>
+      <c r="K65">
+        <v>-0.1063302467508308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.003808570193052921</v>
+        <v>0.01429710423314628</v>
       </c>
       <c r="C66">
-        <v>-0.1707819829841403</v>
+        <v>-0.1656515566073336</v>
       </c>
       <c r="D66">
-        <v>-0.02099601323726639</v>
+        <v>0.04547738768467521</v>
       </c>
       <c r="E66">
-        <v>0.05036238550017547</v>
+        <v>-0.01752688320862914</v>
       </c>
       <c r="F66">
-        <v>-0.02043944511507578</v>
+        <v>-0.007970630638040117</v>
       </c>
       <c r="G66">
-        <v>0.0887843451157905</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.02298852494540091</v>
+      </c>
+      <c r="H66">
+        <v>-0.06343045007780081</v>
+      </c>
+      <c r="I66">
+        <v>0.02671469052421012</v>
+      </c>
+      <c r="J66">
+        <v>0.04617948340178672</v>
+      </c>
+      <c r="K66">
+        <v>-0.02032185290147751</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02925550648149682</v>
+        <v>0.02109233251194505</v>
       </c>
       <c r="C67">
-        <v>-0.03902547944706303</v>
+        <v>-0.05320913034292813</v>
       </c>
       <c r="D67">
-        <v>-0.0630231609425468</v>
+        <v>0.04362601654132778</v>
       </c>
       <c r="E67">
-        <v>-0.03841826065208888</v>
+        <v>0.0308675828961895</v>
       </c>
       <c r="F67">
-        <v>0.004970455182566618</v>
+        <v>0.017527571192528</v>
       </c>
       <c r="G67">
-        <v>0.01853414806786079</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01671292769564088</v>
+      </c>
+      <c r="H67">
+        <v>-0.06594941013659057</v>
+      </c>
+      <c r="I67">
+        <v>-0.0405866468749658</v>
+      </c>
+      <c r="J67">
+        <v>-0.04246357359767134</v>
+      </c>
+      <c r="K67">
+        <v>0.06952589888176093</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2895472105789045</v>
+        <v>0.2949050321896354</v>
       </c>
       <c r="C68">
-        <v>0.04368866539660944</v>
+        <v>0.07133955536395477</v>
       </c>
       <c r="D68">
-        <v>0.02905803220285441</v>
+        <v>-0.02604217110772436</v>
       </c>
       <c r="E68">
-        <v>0.03180507887377775</v>
+        <v>-0.01288298835477182</v>
       </c>
       <c r="F68">
-        <v>-0.006848949517590645</v>
+        <v>-0.03224424785440371</v>
       </c>
       <c r="G68">
-        <v>-0.01368321312682802</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02018812486906789</v>
+      </c>
+      <c r="H68">
+        <v>-0.02606406046756818</v>
+      </c>
+      <c r="I68">
+        <v>0.05581159309157231</v>
+      </c>
+      <c r="J68">
+        <v>-0.05910462437892672</v>
+      </c>
+      <c r="K68">
+        <v>0.004504038192573624</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01348303474842826</v>
+        <v>0.007211848987083213</v>
       </c>
       <c r="C69">
-        <v>-0.05657691470917364</v>
+        <v>-0.05083738340678595</v>
       </c>
       <c r="D69">
-        <v>-0.0441567892974101</v>
+        <v>0.02335746498645861</v>
       </c>
       <c r="E69">
-        <v>-0.01726993153438179</v>
+        <v>-0.002651653453642411</v>
       </c>
       <c r="F69">
-        <v>0.005548456901972722</v>
+        <v>0.01298801769114671</v>
       </c>
       <c r="G69">
-        <v>0.01783709387056831</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02138984638320309</v>
+      </c>
+      <c r="H69">
+        <v>-0.04613663184834615</v>
+      </c>
+      <c r="I69">
+        <v>0.0006589804666020622</v>
+      </c>
+      <c r="J69">
+        <v>-0.01615792161727119</v>
+      </c>
+      <c r="K69">
+        <v>0.01657512865003704</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2800537285879217</v>
+        <v>0.2767402728031048</v>
       </c>
       <c r="C71">
-        <v>0.0527710675484333</v>
+        <v>0.07599346200114332</v>
       </c>
       <c r="D71">
-        <v>0.03497046015958014</v>
+        <v>-0.02514504731404429</v>
       </c>
       <c r="E71">
-        <v>0.02084748655785337</v>
+        <v>0.0008208607473877806</v>
       </c>
       <c r="F71">
-        <v>-0.02493909133761577</v>
+        <v>-0.06028900552991521</v>
       </c>
       <c r="G71">
-        <v>-5.086446872551093e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02349769088070256</v>
+      </c>
+      <c r="H71">
+        <v>-0.05056700245620897</v>
+      </c>
+      <c r="I71">
+        <v>-0.001024654955602487</v>
+      </c>
+      <c r="J71">
+        <v>-0.1307011111727156</v>
+      </c>
+      <c r="K71">
+        <v>-0.02377923157459384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.03254382721075082</v>
+        <v>0.05451928872035133</v>
       </c>
       <c r="C72">
-        <v>-0.1529876004108125</v>
+        <v>-0.1413443438065244</v>
       </c>
       <c r="D72">
-        <v>-0.06223474173213509</v>
+        <v>0.04481201665874049</v>
       </c>
       <c r="E72">
-        <v>0.0123604110017996</v>
+        <v>0.003211574965125385</v>
       </c>
       <c r="F72">
-        <v>-0.09878528984991887</v>
+        <v>0.02994920263064918</v>
       </c>
       <c r="G72">
-        <v>0.1148820683587905</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02799753734247343</v>
+      </c>
+      <c r="H72">
+        <v>-0.02876612392051066</v>
+      </c>
+      <c r="I72">
+        <v>0.02627999719976814</v>
+      </c>
+      <c r="J72">
+        <v>0.1121649104371053</v>
+      </c>
+      <c r="K72">
+        <v>-0.06939753186942905</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.0736691069317271</v>
+        <v>0.1512389979102619</v>
       </c>
       <c r="C73">
-        <v>-0.1374139227284673</v>
+        <v>-0.1949887761019538</v>
       </c>
       <c r="D73">
-        <v>-0.1144396770869798</v>
+        <v>0.08275337077993242</v>
       </c>
       <c r="E73">
-        <v>-0.1285924982958652</v>
+        <v>0.03656739427278814</v>
       </c>
       <c r="F73">
-        <v>0.04193583693293134</v>
+        <v>0.2461056401508515</v>
       </c>
       <c r="G73">
-        <v>0.420644397459204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3881944324969585</v>
+      </c>
+      <c r="H73">
+        <v>0.2920806806507396</v>
+      </c>
+      <c r="I73">
+        <v>-0.09428306129820403</v>
+      </c>
+      <c r="J73">
+        <v>-0.06038124318154534</v>
+      </c>
+      <c r="K73">
+        <v>-0.0673026258455993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.0201838425591619</v>
+        <v>0.04149309076861044</v>
       </c>
       <c r="C74">
-        <v>-0.09787430110337481</v>
+        <v>-0.1033577664544268</v>
       </c>
       <c r="D74">
-        <v>-0.06978253514425856</v>
+        <v>0.0476661185260384</v>
       </c>
       <c r="E74">
-        <v>-0.07773322835069267</v>
+        <v>0.01708467279023976</v>
       </c>
       <c r="F74">
-        <v>0.05159010944215721</v>
+        <v>0.04314555023567428</v>
       </c>
       <c r="G74">
-        <v>-0.02068308969852442</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04943707294328995</v>
+      </c>
+      <c r="H74">
+        <v>0.00439461281080733</v>
+      </c>
+      <c r="I74">
+        <v>0.04848265078852442</v>
+      </c>
+      <c r="J74">
+        <v>-0.01510653886545311</v>
+      </c>
+      <c r="K74">
+        <v>-0.01413398540958692</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.06365867796631708</v>
+        <v>0.06475219619200653</v>
       </c>
       <c r="C75">
-        <v>-0.1407933438654399</v>
+        <v>-0.1646335639901464</v>
       </c>
       <c r="D75">
-        <v>-0.08708114974855567</v>
+        <v>0.08322919058268788</v>
       </c>
       <c r="E75">
-        <v>-0.1831904347410231</v>
+        <v>0.07774571505513242</v>
       </c>
       <c r="F75">
-        <v>0.06917176935403982</v>
+        <v>0.1011209815610429</v>
       </c>
       <c r="G75">
-        <v>-0.1583543836660772</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2245917284170107</v>
+      </c>
+      <c r="H75">
+        <v>0.04131310239697332</v>
+      </c>
+      <c r="I75">
+        <v>-0.003940316871703712</v>
+      </c>
+      <c r="J75">
+        <v>-0.1310047991821423</v>
+      </c>
+      <c r="K75">
+        <v>0.08966850670880755</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.02704359928712985</v>
+        <v>0.04298341381803846</v>
       </c>
       <c r="C76">
-        <v>-0.1126659616962219</v>
+        <v>-0.1224376691778397</v>
       </c>
       <c r="D76">
-        <v>-0.06029581180768059</v>
+        <v>0.07285576001078606</v>
       </c>
       <c r="E76">
-        <v>-0.0925236665755185</v>
+        <v>0.01459049468430564</v>
       </c>
       <c r="F76">
-        <v>0.08561396308553108</v>
+        <v>0.08269682028557448</v>
       </c>
       <c r="G76">
-        <v>-0.02553040217438756</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.08050014866954516</v>
+      </c>
+      <c r="H76">
+        <v>0.02080933723475054</v>
+      </c>
+      <c r="I76">
+        <v>0.06125118885357936</v>
+      </c>
+      <c r="J76">
+        <v>-0.008851117194125121</v>
+      </c>
+      <c r="K76">
+        <v>0.04209678796228378</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.07704305981141871</v>
+        <v>0.05023786626655236</v>
       </c>
       <c r="C77">
-        <v>-0.2975228861544967</v>
+        <v>-0.3893438296474669</v>
       </c>
       <c r="D77">
-        <v>0.8598473921731131</v>
+        <v>-0.9038866037163824</v>
       </c>
       <c r="E77">
-        <v>-0.3139719494109516</v>
+        <v>0.05290559862988851</v>
       </c>
       <c r="F77">
-        <v>0.03130365626498895</v>
+        <v>0.08157702414729665</v>
       </c>
       <c r="G77">
-        <v>0.05774679308846937</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03554600563126811</v>
+      </c>
+      <c r="H77">
+        <v>-0.04953426571686634</v>
+      </c>
+      <c r="I77">
+        <v>0.03746662824164089</v>
+      </c>
+      <c r="J77">
+        <v>-0.0106616231302753</v>
+      </c>
+      <c r="K77">
+        <v>0.002601052908442194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02980641464231358</v>
+        <v>0.03535553400384184</v>
       </c>
       <c r="C78">
-        <v>-0.1448533264604868</v>
+        <v>-0.1147907308695215</v>
       </c>
       <c r="D78">
-        <v>-0.09417995281994104</v>
+        <v>0.09666670416603405</v>
       </c>
       <c r="E78">
-        <v>0.07208482809940195</v>
+        <v>-0.04213478944741474</v>
       </c>
       <c r="F78">
-        <v>0.09136388404294617</v>
+        <v>0.005346621446272699</v>
       </c>
       <c r="G78">
-        <v>-0.04397039980530945</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1223513721383789</v>
+      </c>
+      <c r="H78">
+        <v>-0.04639378763794738</v>
+      </c>
+      <c r="I78">
+        <v>0.001252796778798726</v>
+      </c>
+      <c r="J78">
+        <v>0.05917780840599454</v>
+      </c>
+      <c r="K78">
+        <v>-0.4318254366584247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.04066047023154926</v>
+        <v>0.05699503255406062</v>
       </c>
       <c r="C79">
-        <v>-0.1691581473062238</v>
+        <v>-0.1401147489817123</v>
       </c>
       <c r="D79">
-        <v>-0.1059127342497095</v>
+        <v>0.0682252020463413</v>
       </c>
       <c r="E79">
-        <v>-0.1209466963920596</v>
+        <v>0.007820781721281164</v>
       </c>
       <c r="F79">
-        <v>0.1346774965489424</v>
+        <v>0.0635855188641293</v>
       </c>
       <c r="G79">
-        <v>-0.178928840711255</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2412254005817414</v>
+      </c>
+      <c r="H79">
+        <v>0.01087315095413489</v>
+      </c>
+      <c r="I79">
+        <v>0.01714760911000496</v>
+      </c>
+      <c r="J79">
+        <v>-0.09886955474400132</v>
+      </c>
+      <c r="K79">
+        <v>-0.03836810629503453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.01155646649262103</v>
+        <v>0.02109971115864832</v>
       </c>
       <c r="C80">
-        <v>-0.04149934729395832</v>
+        <v>-0.04817019790595489</v>
       </c>
       <c r="D80">
-        <v>-0.05078781313420752</v>
+        <v>0.03834773447522911</v>
       </c>
       <c r="E80">
-        <v>0.01143436570262488</v>
+        <v>-0.05460540124842288</v>
       </c>
       <c r="F80">
-        <v>0.03437405559078038</v>
+        <v>-0.01393348787855506</v>
       </c>
       <c r="G80">
-        <v>-0.01020379196670213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.05948412791699476</v>
+      </c>
+      <c r="H80">
+        <v>0.0249448971751964</v>
+      </c>
+      <c r="I80">
+        <v>-0.03093189357110368</v>
+      </c>
+      <c r="J80">
+        <v>-0.02877292035338319</v>
+      </c>
+      <c r="K80">
+        <v>0.08082500663071741</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.01188371380749698</v>
+        <v>0.01736238518050335</v>
       </c>
       <c r="C81">
-        <v>-0.0875755717858929</v>
+        <v>-0.1008279547186872</v>
       </c>
       <c r="D81">
-        <v>-0.07921848367079687</v>
+        <v>0.05513906264694741</v>
       </c>
       <c r="E81">
-        <v>-0.09598171473738172</v>
+        <v>-0.0004065880735466051</v>
       </c>
       <c r="F81">
-        <v>0.09410718312466575</v>
+        <v>0.04850275070157056</v>
       </c>
       <c r="G81">
-        <v>-0.05176407556056103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1167446074534825</v>
+      </c>
+      <c r="H81">
+        <v>-0.03750351172309595</v>
+      </c>
+      <c r="I81">
+        <v>0.01870413201015829</v>
+      </c>
+      <c r="J81">
+        <v>-0.05881639844874448</v>
+      </c>
+      <c r="K81">
+        <v>0.037162617607595</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.02977779460274902</v>
+        <v>0.04638320683724995</v>
       </c>
       <c r="C82">
-        <v>-0.09065323607527669</v>
+        <v>-0.1031040492711155</v>
       </c>
       <c r="D82">
-        <v>-0.07415438951424062</v>
+        <v>0.06682994906133405</v>
       </c>
       <c r="E82">
-        <v>-0.1102908569561596</v>
+        <v>0.009099232524362379</v>
       </c>
       <c r="F82">
-        <v>0.06788388717522438</v>
+        <v>0.07449417728960303</v>
       </c>
       <c r="G82">
-        <v>-0.01790659381935645</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.09355392035917405</v>
+      </c>
+      <c r="H82">
+        <v>0.001217560540891729</v>
+      </c>
+      <c r="I82">
+        <v>0.03035099812769534</v>
+      </c>
+      <c r="J82">
+        <v>-0.0287263904575441</v>
+      </c>
+      <c r="K82">
+        <v>0.02145778180560342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.003075950610623285</v>
+        <v>0.0003145791514710389</v>
       </c>
       <c r="C83">
-        <v>-0.0464310712179345</v>
+        <v>0.01269506984191728</v>
       </c>
       <c r="D83">
-        <v>0.1665169979082197</v>
+        <v>-0.05941823951310828</v>
       </c>
       <c r="E83">
-        <v>0.5178530944380283</v>
+        <v>-0.9486811166178527</v>
       </c>
       <c r="F83">
-        <v>0.7569717522523246</v>
+        <v>0.1221684938293695</v>
       </c>
       <c r="G83">
-        <v>0.003614706280281411</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06183786330083763</v>
+      </c>
+      <c r="H83">
+        <v>0.1057834277067796</v>
+      </c>
+      <c r="I83">
+        <v>0.023377325584808</v>
+      </c>
+      <c r="J83">
+        <v>0.07809508960046466</v>
+      </c>
+      <c r="K83">
+        <v>-0.01954276325871248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-5.59915204031418e-05</v>
+        <v>-0.0003443389843099975</v>
       </c>
       <c r="C84">
-        <v>-0.06090441396441682</v>
+        <v>-0.04534416179719786</v>
       </c>
       <c r="D84">
-        <v>-0.03290429111769144</v>
+        <v>0.06110301904872557</v>
       </c>
       <c r="E84">
-        <v>0.07390210171868328</v>
+        <v>0.00239798066324881</v>
       </c>
       <c r="F84">
-        <v>-0.1251353709781954</v>
+        <v>-0.09814194875966584</v>
       </c>
       <c r="G84">
-        <v>-0.07040768933971131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.03590379999365532</v>
+      </c>
+      <c r="H84">
+        <v>-0.08474960069692873</v>
+      </c>
+      <c r="I84">
+        <v>0.08116876270249744</v>
+      </c>
+      <c r="J84">
+        <v>0.09612599414769328</v>
+      </c>
+      <c r="K84">
+        <v>0.05082868985165909</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.02230619320588623</v>
+        <v>0.030005718317574</v>
       </c>
       <c r="C85">
-        <v>-0.1344004540082633</v>
+        <v>-0.1169585254610448</v>
       </c>
       <c r="D85">
-        <v>-0.08756798453884036</v>
+        <v>0.08214723148489692</v>
       </c>
       <c r="E85">
-        <v>-0.1276257926203593</v>
+        <v>0.02408659422851</v>
       </c>
       <c r="F85">
-        <v>0.1246069352276827</v>
+        <v>0.1285812004742894</v>
       </c>
       <c r="G85">
-        <v>-0.1227503489773531</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2121954526130523</v>
+      </c>
+      <c r="H85">
+        <v>0.05413277418088465</v>
+      </c>
+      <c r="I85">
+        <v>0.0752125658689267</v>
+      </c>
+      <c r="J85">
+        <v>-0.09952510124632104</v>
+      </c>
+      <c r="K85">
+        <v>0.0593650037862759</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01978940211649466</v>
+        <v>0.01563333781246374</v>
       </c>
       <c r="C86">
-        <v>-0.06653204738080126</v>
+        <v>-0.08117940722423569</v>
       </c>
       <c r="D86">
-        <v>0.03351782377913324</v>
+        <v>0.02545893609046182</v>
       </c>
       <c r="E86">
-        <v>0.01985985266626884</v>
+        <v>-0.01293968289498717</v>
       </c>
       <c r="F86">
-        <v>-0.06310122777539716</v>
+        <v>-0.08402205401560275</v>
       </c>
       <c r="G86">
-        <v>0.03686427962458786</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05278616003286596</v>
+      </c>
+      <c r="H86">
+        <v>-0.00819988909500124</v>
+      </c>
+      <c r="I86">
+        <v>-0.1466402736696969</v>
+      </c>
+      <c r="J86">
+        <v>-0.1153737595943044</v>
+      </c>
+      <c r="K86">
+        <v>-0.1489560888760635</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.04087729793979864</v>
+        <v>0.02735055591549857</v>
       </c>
       <c r="C87">
-        <v>-0.1514262110529646</v>
+        <v>-0.1200423146370484</v>
       </c>
       <c r="D87">
-        <v>-0.02153368710700176</v>
+        <v>0.01824538931583451</v>
       </c>
       <c r="E87">
-        <v>0.1015145754262658</v>
+        <v>-0.00725746219397698</v>
       </c>
       <c r="F87">
-        <v>-0.0388935051361415</v>
+        <v>-0.07031201952425466</v>
       </c>
       <c r="G87">
-        <v>-0.02526547341885612</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.007536809390090788</v>
+      </c>
+      <c r="H87">
+        <v>-0.03809446586417347</v>
+      </c>
+      <c r="I87">
+        <v>0.1168517549835784</v>
+      </c>
+      <c r="J87">
+        <v>0.05456729702063708</v>
+      </c>
+      <c r="K87">
+        <v>-0.07676958868355128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.007633333342892335</v>
+        <v>0.03817922239921399</v>
       </c>
       <c r="C88">
-        <v>-0.03911732088283255</v>
+        <v>-0.06258701695135364</v>
       </c>
       <c r="D88">
-        <v>-0.04829310095723979</v>
+        <v>0.04275783210935183</v>
       </c>
       <c r="E88">
-        <v>-0.05715371763440997</v>
+        <v>0.01336977309383863</v>
       </c>
       <c r="F88">
-        <v>0.01355902524063592</v>
+        <v>0.02097859735540415</v>
       </c>
       <c r="G88">
-        <v>0.0167090255404686</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.0235238863931391</v>
+      </c>
+      <c r="H88">
+        <v>-0.006689833236749752</v>
+      </c>
+      <c r="I88">
+        <v>0.01125096024776447</v>
+      </c>
+      <c r="J88">
+        <v>-0.01972174177650619</v>
+      </c>
+      <c r="K88">
+        <v>0.0940388855559421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.3854685352062123</v>
+        <v>0.3895315077901053</v>
       </c>
       <c r="C89">
-        <v>0.1021931264668677</v>
+        <v>0.1181063539484773</v>
       </c>
       <c r="D89">
-        <v>-0.1080162640769636</v>
+        <v>-0.03214689098973197</v>
       </c>
       <c r="E89">
-        <v>0.08582069399201044</v>
+        <v>0.04030126856617956</v>
       </c>
       <c r="F89">
-        <v>-0.05184332491534881</v>
+        <v>-0.07502332119203141</v>
       </c>
       <c r="G89">
-        <v>-0.08164476108551816</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04731141468699685</v>
+      </c>
+      <c r="H89">
+        <v>-0.02292219684416911</v>
+      </c>
+      <c r="I89">
+        <v>0.1655554477302305</v>
+      </c>
+      <c r="J89">
+        <v>0.7151020569385168</v>
+      </c>
+      <c r="K89">
+        <v>-0.02394950257147068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3041081678487836</v>
+        <v>0.3142639587069925</v>
       </c>
       <c r="C90">
-        <v>0.04087749486364122</v>
+        <v>0.0775167461317325</v>
       </c>
       <c r="D90">
-        <v>0.0166957480544098</v>
+        <v>-0.01812386839256468</v>
       </c>
       <c r="E90">
-        <v>0.07237727629560431</v>
+        <v>-0.02662236429803862</v>
       </c>
       <c r="F90">
-        <v>0.02429786043609637</v>
+        <v>-0.03489184979524176</v>
       </c>
       <c r="G90">
-        <v>0.02383231881096237</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.009515621276435397</v>
+      </c>
+      <c r="H90">
+        <v>-0.01879104178995756</v>
+      </c>
+      <c r="I90">
+        <v>-0.01491265990675804</v>
+      </c>
+      <c r="J90">
+        <v>-0.08514527730337834</v>
+      </c>
+      <c r="K90">
+        <v>-0.008385754674771276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.03564885751386389</v>
+        <v>0.0532110792912528</v>
       </c>
       <c r="C91">
-        <v>-0.08596519702979565</v>
+        <v>-0.08421192945345678</v>
       </c>
       <c r="D91">
-        <v>-0.04852102488799223</v>
+        <v>0.04395074606173693</v>
       </c>
       <c r="E91">
-        <v>-0.06516516522385886</v>
+        <v>-0.0181416254407978</v>
       </c>
       <c r="F91">
-        <v>0.07399261697303366</v>
+        <v>0.06095315540138081</v>
       </c>
       <c r="G91">
-        <v>-0.05518884745929209</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.07812097275154259</v>
+      </c>
+      <c r="H91">
+        <v>0.03266341428278182</v>
+      </c>
+      <c r="I91">
+        <v>0.008437068254142144</v>
+      </c>
+      <c r="J91">
+        <v>0.001362507375586988</v>
+      </c>
+      <c r="K91">
+        <v>0.05253952001385936</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3839815202899304</v>
+        <v>0.3545332157792486</v>
       </c>
       <c r="C92">
-        <v>0.08991607492604622</v>
+        <v>0.1208428640189677</v>
       </c>
       <c r="D92">
-        <v>0.01018952724237025</v>
+        <v>-0.0530836108318696</v>
       </c>
       <c r="E92">
-        <v>-0.03066160552990662</v>
+        <v>0.03096231629196058</v>
       </c>
       <c r="F92">
-        <v>-0.09582304083032052</v>
+        <v>-0.05564997218331308</v>
       </c>
       <c r="G92">
-        <v>-0.02167437258713344</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01286151287218685</v>
+      </c>
+      <c r="H92">
+        <v>-0.06442187201838512</v>
+      </c>
+      <c r="I92">
+        <v>-0.03942189898895394</v>
+      </c>
+      <c r="J92">
+        <v>-0.148650685473532</v>
+      </c>
+      <c r="K92">
+        <v>0.003627052124732986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.2993886285294258</v>
+        <v>0.310064938621168</v>
       </c>
       <c r="C93">
-        <v>0.08553510876184969</v>
+        <v>0.1133047368285992</v>
       </c>
       <c r="D93">
-        <v>-0.007897074793958724</v>
+        <v>-0.009138015693554309</v>
       </c>
       <c r="E93">
-        <v>0.05817559670516331</v>
+        <v>-0.009793369985502598</v>
       </c>
       <c r="F93">
-        <v>-0.01852953252228112</v>
+        <v>-0.03658364074649444</v>
       </c>
       <c r="G93">
-        <v>-0.01710203534299551</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04130525065153978</v>
+      </c>
+      <c r="H93">
+        <v>-0.02933816208538865</v>
+      </c>
+      <c r="I93">
+        <v>-0.04739999896821968</v>
+      </c>
+      <c r="J93">
+        <v>-0.09497734572238795</v>
+      </c>
+      <c r="K93">
+        <v>-0.006624895237851413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.05239258240412202</v>
+        <v>0.07788934398648717</v>
       </c>
       <c r="C94">
-        <v>-0.2047093961112767</v>
+        <v>-0.1634278361628393</v>
       </c>
       <c r="D94">
-        <v>-0.1557410262505309</v>
+        <v>0.1043483821405851</v>
       </c>
       <c r="E94">
-        <v>-0.2582935743827872</v>
+        <v>0.03619416734692504</v>
       </c>
       <c r="F94">
-        <v>0.1960612934501677</v>
+        <v>0.1480714679703802</v>
       </c>
       <c r="G94">
-        <v>-0.5373072609092135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5317743542380693</v>
+      </c>
+      <c r="H94">
+        <v>0.2350762379286157</v>
+      </c>
+      <c r="I94">
+        <v>-0.05972047371289248</v>
+      </c>
+      <c r="J94">
+        <v>0.2015742357043702</v>
+      </c>
+      <c r="K94">
+        <v>0.1820089119075791</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.03874800727287184</v>
+        <v>0.03998131657893866</v>
       </c>
       <c r="C95">
-        <v>-0.09663552071105422</v>
+        <v>-0.1285700425727335</v>
       </c>
       <c r="D95">
-        <v>-0.03566818292107361</v>
+        <v>0.05908249820720454</v>
       </c>
       <c r="E95">
-        <v>-0.03399792857549676</v>
+        <v>0.03684014171086791</v>
       </c>
       <c r="F95">
-        <v>0.08455644635658875</v>
+        <v>0.06905446658491804</v>
       </c>
       <c r="G95">
-        <v>0.1306958748158102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05338135878196468</v>
+      </c>
+      <c r="H95">
+        <v>-0.07408317114811305</v>
+      </c>
+      <c r="I95">
+        <v>0.1253697339297218</v>
+      </c>
+      <c r="J95">
+        <v>0.1372836988847432</v>
+      </c>
+      <c r="K95">
+        <v>0.2072057237639988</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-7.677604533734961e-06</v>
+        <v>0.01281282475291829</v>
       </c>
       <c r="C97">
-        <v>-0.0007925222157825771</v>
+        <v>-0.01758896215080094</v>
       </c>
       <c r="D97">
-        <v>-3.927508386040281e-05</v>
+        <v>-0.01103178763692849</v>
       </c>
       <c r="E97">
-        <v>0.0004254713926919377</v>
+        <v>0.03119421688919983</v>
       </c>
       <c r="F97">
-        <v>-0.001379896363729027</v>
+        <v>-0.01918340529171117</v>
       </c>
       <c r="G97">
-        <v>-0.00137266053670304</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02819130158248614</v>
+      </c>
+      <c r="H97">
+        <v>-0.04578497883217418</v>
+      </c>
+      <c r="I97">
+        <v>-0.1305372556399365</v>
+      </c>
+      <c r="J97">
+        <v>0.06665218636765555</v>
+      </c>
+      <c r="K97">
+        <v>0.004172931912374657</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08922006653494495</v>
+        <v>0.1312646169072573</v>
       </c>
       <c r="C98">
-        <v>-0.153975832723258</v>
+        <v>-0.1586863498108408</v>
       </c>
       <c r="D98">
-        <v>-0.1200448295862922</v>
+        <v>0.09047861755872262</v>
       </c>
       <c r="E98">
-        <v>-0.06952406123561232</v>
+        <v>0.03236537156031603</v>
       </c>
       <c r="F98">
-        <v>0.01611287979814998</v>
+        <v>0.2197418584408152</v>
       </c>
       <c r="G98">
-        <v>0.2845915139304282</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3321110476071456</v>
+      </c>
+      <c r="H98">
+        <v>0.3241895815510464</v>
+      </c>
+      <c r="I98">
+        <v>-0.113309086380475</v>
+      </c>
+      <c r="J98">
+        <v>-0.07290093923213539</v>
+      </c>
+      <c r="K98">
+        <v>-0.09284987923625874</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01527694448596883</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04733047950144033</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.007369246614559646</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.03267742336248915</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.04493977711086819</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.07496553530135476</v>
+      </c>
+      <c r="H99">
+        <v>-0.1188700921534368</v>
+      </c>
+      <c r="I99">
+        <v>-0.8604754414712888</v>
+      </c>
+      <c r="J99">
+        <v>0.2660636848202506</v>
+      </c>
+      <c r="K99">
+        <v>-0.02755331192251669</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.008964005589174595</v>
+        <v>0.01427882236874739</v>
       </c>
       <c r="C101">
-        <v>-0.07698972151534346</v>
+        <v>-0.08147114953326191</v>
       </c>
       <c r="D101">
-        <v>-0.03791837941497342</v>
+        <v>0.05222083033085446</v>
       </c>
       <c r="E101">
-        <v>0.03247539749096711</v>
+        <v>-0.05775664803616736</v>
       </c>
       <c r="F101">
-        <v>0.007203561374695973</v>
+        <v>0.01039768505813152</v>
       </c>
       <c r="G101">
-        <v>0.09197505021217914</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1071224169671896</v>
+      </c>
+      <c r="H101">
+        <v>-0.2967787413303037</v>
+      </c>
+      <c r="I101">
+        <v>-0.01198936077860159</v>
+      </c>
+      <c r="J101">
+        <v>0.04318072795441303</v>
+      </c>
+      <c r="K101">
+        <v>0.1455758727016944</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.01027898281799879</v>
+        <v>0.003760817933427837</v>
       </c>
       <c r="C102">
-        <v>-0.02744163234070477</v>
+        <v>-0.01039686274836231</v>
       </c>
       <c r="D102">
-        <v>-0.007496851023891933</v>
+        <v>0.0008486745246710956</v>
       </c>
       <c r="E102">
-        <v>-0.01998015725073597</v>
+        <v>-0.004364780857462659</v>
       </c>
       <c r="F102">
-        <v>0.02754410208177236</v>
+        <v>0.007525443232722914</v>
       </c>
       <c r="G102">
-        <v>-0.001978049439677074</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.005813778438670195</v>
+      </c>
+      <c r="H102">
+        <v>5.928648413019346e-05</v>
+      </c>
+      <c r="I102">
+        <v>0.0007549848090532739</v>
+      </c>
+      <c r="J102">
+        <v>0.01922796934266799</v>
+      </c>
+      <c r="K102">
+        <v>-0.006155496500039454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
